--- a/published-data/fonds-solidarite/fds-2022-05-16/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-16/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -4018,13 +4018,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>71264</v>
+        <v>71266</v>
       </c>
       <c r="D88" t="n">
         <v>12436</v>
       </c>
       <c r="E88" t="n">
-        <v>110294557</v>
+        <v>110295157</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -4141,13 +4141,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>18848</v>
+        <v>18857</v>
       </c>
       <c r="D91" t="n">
         <v>3383</v>
       </c>
       <c r="E91" t="n">
-        <v>75117834</v>
+        <v>75163013</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4387,13 +4387,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D97" t="n">
         <v>4</v>
       </c>
       <c r="E97" t="n">
-        <v>286089</v>
+        <v>354577</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -4428,13 +4428,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>6285</v>
+        <v>6295</v>
       </c>
       <c r="D98" t="n">
         <v>911</v>
       </c>
       <c r="E98" t="n">
-        <v>19290013</v>
+        <v>19452171</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -4510,13 +4510,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>9336</v>
+        <v>9339</v>
       </c>
       <c r="D100" t="n">
         <v>1304</v>
       </c>
       <c r="E100" t="n">
-        <v>23720836</v>
+        <v>23760393</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -5371,13 +5371,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1306128</v>
+        <v>1306135</v>
       </c>
       <c r="D121" t="n">
         <v>220385</v>
       </c>
       <c r="E121" t="n">
-        <v>2274563595</v>
+        <v>2274587611</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D122" t="n">
         <v>48</v>
       </c>
       <c r="E122" t="n">
-        <v>1156270</v>
+        <v>1162215</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -5699,13 +5699,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>633349</v>
+        <v>633363</v>
       </c>
       <c r="D129" t="n">
         <v>104966</v>
       </c>
       <c r="E129" t="n">
-        <v>3426871448</v>
+        <v>3427264164</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>585628</v>
+        <v>585656</v>
       </c>
       <c r="D132" t="n">
         <v>90780</v>
       </c>
       <c r="E132" t="n">
-        <v>3461429703</v>
+        <v>3462321824</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -5986,13 +5986,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>26675</v>
+        <v>26677</v>
       </c>
       <c r="D136" t="n">
         <v>4272</v>
       </c>
       <c r="E136" t="n">
-        <v>143540532</v>
+        <v>143561800</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -6109,13 +6109,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>76639</v>
+        <v>76641</v>
       </c>
       <c r="D139" t="n">
         <v>17494</v>
       </c>
       <c r="E139" t="n">
-        <v>114131597</v>
+        <v>114132538</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -6314,13 +6314,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>25069</v>
+        <v>25074</v>
       </c>
       <c r="D144" t="n">
         <v>6170</v>
       </c>
       <c r="E144" t="n">
-        <v>92411535</v>
+        <v>92430892</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -6396,13 +6396,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>7438</v>
+        <v>7440</v>
       </c>
       <c r="D146" t="n">
         <v>1667</v>
       </c>
       <c r="E146" t="n">
-        <v>37681278</v>
+        <v>37684204</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -6601,13 +6601,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>39921</v>
+        <v>39928</v>
       </c>
       <c r="D151" t="n">
         <v>7155</v>
       </c>
       <c r="E151" t="n">
-        <v>60359605</v>
+        <v>60363412</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -6724,13 +6724,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>18438</v>
+        <v>18453</v>
       </c>
       <c r="D154" t="n">
         <v>3296</v>
       </c>
       <c r="E154" t="n">
-        <v>72659539</v>
+        <v>72760118</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -6806,13 +6806,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>12397</v>
+        <v>12398</v>
       </c>
       <c r="D156" t="n">
         <v>2144</v>
       </c>
       <c r="E156" t="n">
-        <v>40042868</v>
+        <v>40047588</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -7421,13 +7421,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>95820</v>
+        <v>95821</v>
       </c>
       <c r="D171" t="n">
         <v>18308</v>
       </c>
       <c r="E171" t="n">
-        <v>490472924</v>
+        <v>490672924</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -8159,13 +8159,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>100464</v>
+        <v>100465</v>
       </c>
       <c r="D189" t="n">
         <v>18353</v>
       </c>
       <c r="E189" t="n">
-        <v>556054990</v>
+        <v>556064990</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -9594,13 +9594,13 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>39674</v>
+        <v>39675</v>
       </c>
       <c r="D224" t="n">
         <v>7247</v>
       </c>
       <c r="E224" t="n">
-        <v>260918742</v>
+        <v>260923034</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -9799,13 +9799,13 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>612541</v>
+        <v>612545</v>
       </c>
       <c r="D229" t="n">
-        <v>121243</v>
+        <v>121244</v>
       </c>
       <c r="E229" t="n">
-        <v>1040728847</v>
+        <v>1040753491</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -10250,13 +10250,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>205900</v>
+        <v>205901</v>
       </c>
       <c r="D240" t="n">
         <v>33984</v>
       </c>
       <c r="E240" t="n">
-        <v>1068736801</v>
+        <v>1068739496</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
